--- a/Lesiones.xlsx
+++ b/Lesiones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferbm\AppData\Local\GitHubDesktop\PDL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isanavarro/Documents/GitHub/Prediccion_de_lesiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DE1C57-DB71-4C4E-B873-FE0820FF0A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA121C5-3CA6-004E-AD30-72C6594BA638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="84">
   <si>
     <t>Nombre del Jugador</t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>CASOS RAROS, NO SABEMOS QUE PASO</t>
-  </si>
-  <si>
-    <t>*Primer registro es despues de lesion</t>
   </si>
   <si>
     <t>*Descanso el 27?</t>
@@ -349,7 +346,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,24 +401,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -435,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -638,20 +617,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -874,12 +841,12 @@
   </sheetPr>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="24" customWidth="1"/>
@@ -893,7 +860,7 @@
     <col min="11" max="11" width="86" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="98.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="98" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +904,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="53" t="s">
         <v>3</v>
       </c>
@@ -953,7 +920,7 @@
       <c r="E2" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="80">
+      <c r="F2" s="55">
         <v>43800</v>
       </c>
       <c r="G2" s="55"/>
@@ -968,7 +935,7 @@
       </c>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -997,11 +964,9 @@
       <c r="J3" s="9">
         <v>43792</v>
       </c>
-      <c r="K3" s="37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="K3" s="37"/>
+    </row>
+    <row r="4" spans="1:14" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="53" t="s">
         <v>6</v>
       </c>
@@ -1017,7 +982,7 @@
       <c r="E4" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="55">
         <v>43803</v>
       </c>
       <c r="G4" s="55"/>
@@ -1032,14 +997,14 @@
       </c>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:14" s="26" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="80">
+      <c r="C5" s="18">
         <v>43806</v>
       </c>
       <c r="D5" s="19" t="s">
@@ -1048,7 +1013,7 @@
       <c r="E5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="18">
         <v>43805</v>
       </c>
       <c r="G5" s="18"/>
@@ -1063,14 +1028,14 @@
       </c>
       <c r="K5" s="45"/>
     </row>
-    <row r="6" spans="1:14" s="26" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="18">
         <v>43843</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -1079,7 +1044,7 @@
       <c r="E6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="79">
+      <c r="F6" s="17">
         <v>43842</v>
       </c>
       <c r="G6" s="18" t="s">
@@ -1096,14 +1061,14 @@
       </c>
       <c r="K6" s="45"/>
     </row>
-    <row r="7" spans="1:14" s="8" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="80">
+      <c r="C7" s="11">
         <v>43858</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -1126,17 +1091,17 @@
         <v>43856</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="8" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="80">
+      <c r="C8" s="11">
         <v>43889</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1159,17 +1124,17 @@
         <v>43887</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="8" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="11">
         <v>43889</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -1192,17 +1157,17 @@
         <v>43887</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="8" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="11">
         <v>43901</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -1227,17 +1192,17 @@
         <v>43899</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="26" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="18">
         <v>43991</v>
       </c>
       <c r="D11" s="19" t="s">
@@ -1260,10 +1225,10 @@
         <v>43907</v>
       </c>
       <c r="K11" s="46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="53" t="s">
         <v>11</v>
       </c>
@@ -1279,7 +1244,7 @@
       <c r="E12" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="62">
         <v>44013</v>
       </c>
       <c r="G12" s="56" t="s">
@@ -1296,14 +1261,14 @@
       </c>
       <c r="K12" s="57"/>
     </row>
-    <row r="13" spans="1:14" s="26" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="43" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="80">
+      <c r="C13" s="18">
         <v>44018</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -1329,14 +1294,14 @@
       </c>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:14" s="8" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="11">
         <v>44042</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -1361,11 +1326,11 @@
         <v>44040</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="A15" s="82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A15" s="78" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="54" t="s">
@@ -1397,14 +1362,14 @@
       </c>
       <c r="K15" s="57"/>
     </row>
-    <row r="16" spans="1:14" s="8" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="80">
+      <c r="C16" s="11">
         <v>44053</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -1429,10 +1394,10 @@
         <v>44051</v>
       </c>
       <c r="K16" s="39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="8" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
@@ -1460,15 +1425,15 @@
       <c r="I17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="81">
+      <c r="J17" s="16">
         <v>44065</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="1:12" s="8" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
@@ -1496,15 +1461,15 @@
       <c r="I18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="80">
+      <c r="J18" s="11">
         <v>44073</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" s="8" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1532,15 +1497,15 @@
       <c r="I19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="81">
+      <c r="J19" s="16">
         <v>44082</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:12" s="8" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
@@ -1566,22 +1531,22 @@
       <c r="I20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="81">
+      <c r="J20" s="16">
         <v>44088</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="1:12" s="8" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="11">
         <v>44130</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -1606,13 +1571,13 @@
         <v>44125</v>
       </c>
       <c r="K21" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="53" t="s">
         <v>18</v>
       </c>
@@ -1628,7 +1593,7 @@
       <c r="E22" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="81">
+      <c r="F22" s="62">
         <v>44130</v>
       </c>
       <c r="G22" s="56" t="s">
@@ -1645,7 +1610,7 @@
       </c>
       <c r="K22" s="57"/>
     </row>
-    <row r="23" spans="1:12" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="53" t="s">
         <v>3</v>
       </c>
@@ -1661,7 +1626,7 @@
       <c r="E23" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="81">
+      <c r="F23" s="62">
         <v>44130</v>
       </c>
       <c r="G23" s="56" t="s">
@@ -1678,7 +1643,7 @@
       </c>
       <c r="K23" s="57"/>
     </row>
-    <row r="24" spans="1:12" s="6" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -1711,7 +1676,7 @@
       </c>
       <c r="K24" s="36"/>
     </row>
-    <row r="25" spans="1:12" s="8" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>19</v>
       </c>
@@ -1739,21 +1704,21 @@
       <c r="I25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="81">
+      <c r="J25" s="16">
         <v>44211</v>
       </c>
       <c r="K25" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="8" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="80">
+      <c r="C26" s="11">
         <v>44237</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -1779,8 +1744,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="A27" s="82" t="s">
+    <row r="27" spans="1:12" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A27" s="78" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="54" t="s">
@@ -1810,7 +1775,7 @@
       </c>
       <c r="K27" s="57"/>
     </row>
-    <row r="28" spans="1:12" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="53" t="s">
         <v>20</v>
       </c>
@@ -1826,7 +1791,7 @@
       <c r="E28" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="81">
+      <c r="F28" s="62">
         <v>44247</v>
       </c>
       <c r="G28" s="63"/>
@@ -1841,7 +1806,7 @@
       </c>
       <c r="K28" s="57"/>
     </row>
-    <row r="29" spans="1:12" s="26" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="43" t="s">
         <v>17</v>
       </c>
@@ -1857,7 +1822,7 @@
       <c r="E29" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="80">
+      <c r="F29" s="18">
         <v>44254</v>
       </c>
       <c r="G29" s="44"/>
@@ -1874,14 +1839,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="8" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="80">
+      <c r="C30" s="11">
         <v>44272</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -1909,14 +1874,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="8" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="80">
+      <c r="C31" s="11">
         <v>44272</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -1944,7 +1909,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="53" t="s">
         <v>23</v>
       </c>
@@ -1960,7 +1925,7 @@
       <c r="E32" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="81">
+      <c r="F32" s="62">
         <v>44273</v>
       </c>
       <c r="G32" s="63"/>
@@ -1975,8 +1940,8 @@
       </c>
       <c r="K32" s="57"/>
     </row>
-    <row r="33" spans="1:12" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="A33" s="82" t="s">
+    <row r="33" spans="1:12" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A33" s="78" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="54" t="s">
@@ -2006,7 +1971,7 @@
       </c>
       <c r="K33" s="57"/>
     </row>
-    <row r="34" spans="1:12" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="53" t="s">
         <v>25</v>
       </c>
@@ -2022,7 +1987,7 @@
       <c r="E34" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="81">
+      <c r="F34" s="62">
         <v>44297</v>
       </c>
       <c r="G34" s="63"/>
@@ -2039,7 +2004,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="53" t="s">
         <v>21</v>
       </c>
@@ -2055,7 +2020,7 @@
       <c r="E35" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="81">
+      <c r="F35" s="62">
         <v>44303</v>
       </c>
       <c r="G35" s="63"/>
@@ -2070,14 +2035,14 @@
       </c>
       <c r="K35" s="57"/>
     </row>
-    <row r="36" spans="1:12" s="32" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="83">
+      <c r="C36" s="79">
         <v>44307</v>
       </c>
       <c r="D36" s="25" t="s">
@@ -2091,7 +2056,7 @@
       <c r="J36" s="30"/>
       <c r="K36" s="41"/>
     </row>
-    <row r="37" spans="1:12" s="6" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>29</v>
       </c>
@@ -2124,7 +2089,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="6" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>28</v>
       </c>
@@ -2157,7 +2122,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="77" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" s="77" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="69" t="s">
         <v>6</v>
       </c>
@@ -2180,7 +2145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="6" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>30</v>
       </c>
@@ -2213,7 +2178,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="53" t="s">
         <v>27</v>
       </c>
@@ -2229,7 +2194,7 @@
       <c r="E41" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="80">
+      <c r="F41" s="55">
         <v>44434</v>
       </c>
       <c r="G41" s="54"/>
@@ -2244,14 +2209,14 @@
       </c>
       <c r="K41" s="67"/>
     </row>
-    <row r="42" spans="1:12" s="8" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="80">
+      <c r="C42" s="11">
         <v>44452</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -2280,7 +2245,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="53" t="s">
         <v>33</v>
       </c>
@@ -2296,7 +2261,7 @@
       <c r="E43" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="81">
+      <c r="F43" s="62">
         <v>44457</v>
       </c>
       <c r="G43" s="63"/>
@@ -2311,14 +2276,14 @@
       </c>
       <c r="K43" s="57"/>
     </row>
-    <row r="44" spans="1:12" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B44" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="80">
+      <c r="C44" s="11">
         <v>44467</v>
       </c>
       <c r="D44" s="27" t="s">
@@ -2346,7 +2311,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="6" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>36</v>
       </c>
@@ -2379,14 +2344,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="32" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="49" t="s">
         <v>30</v>
       </c>
       <c r="B46" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="80">
+      <c r="C46" s="79">
         <v>44481</v>
       </c>
       <c r="D46" s="50" t="s">
@@ -2411,17 +2376,17 @@
         <v>40</v>
       </c>
       <c r="K46" s="51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="32" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="49" t="s">
         <v>35</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="80">
+      <c r="C47" s="79">
         <v>44485</v>
       </c>
       <c r="D47" s="34" t="s">
@@ -2436,10 +2401,10 @@
       <c r="I47" s="34"/>
       <c r="J47" s="52"/>
       <c r="K47" s="51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="53" t="s">
         <v>6</v>
       </c>
@@ -2455,7 +2420,7 @@
       <c r="E48" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="80">
+      <c r="F48" s="55">
         <v>44490</v>
       </c>
       <c r="G48" s="54"/>
@@ -2470,7 +2435,7 @@
       </c>
       <c r="K48" s="67"/>
     </row>
-    <row r="49" spans="1:11" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="53" t="s">
         <v>35</v>
       </c>
@@ -2486,7 +2451,7 @@
       <c r="E49" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="81">
+      <c r="F49" s="62">
         <v>44496</v>
       </c>
       <c r="G49" s="63"/>
@@ -2501,7 +2466,7 @@
       </c>
       <c r="K49" s="57"/>
     </row>
-    <row r="50" spans="1:11" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="53" t="s">
         <v>23</v>
       </c>
@@ -2517,7 +2482,7 @@
       <c r="E50" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="81">
+      <c r="F50" s="62">
         <v>44499</v>
       </c>
       <c r="G50" s="63"/>
@@ -2532,7 +2497,7 @@
       </c>
       <c r="K50" s="57"/>
     </row>
-    <row r="51" spans="1:11" s="58" customFormat="1" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" s="58" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="53" t="s">
         <v>7</v>
       </c>
@@ -2548,7 +2513,7 @@
       <c r="E51" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F51" s="81">
+      <c r="F51" s="62">
         <v>44505</v>
       </c>
       <c r="G51" s="63"/>
@@ -2570,7 +2535,7 @@
   <customSheetViews>
     <customSheetView guid="{426FF57C-801F-4ABB-9A70-A311112DA78F}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="D1:D160" xr:uid="{A63F52FE-9252-4EDB-8CC3-230883C66987}"/>
+      <autoFilter ref="D1:D160" xr:uid="{673E4EA9-ACCB-8B47-93C1-CD798369E63B}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lesiones.xlsx
+++ b/Lesiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isanavarro/Documents/GitHub/Prediccion_de_lesiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA121C5-3CA6-004E-AD30-72C6594BA638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD7A0C5-0909-C84A-9E31-11C3D516AEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -841,22 +841,23 @@
   </sheetPr>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" style="24" customWidth="1"/>
-    <col min="6" max="7" width="21.5" style="14" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="14" customWidth="1"/>
-    <col min="10" max="10" width="31.83203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="10" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="24" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="14" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" style="14" customWidth="1"/>
     <col min="11" max="11" width="86" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Lesiones.xlsx
+++ b/Lesiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isanavarro/Documents/GitHub/Prediccion_de_lesiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD7A0C5-0909-C84A-9E31-11C3D516AEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EC1FD6-5D59-1C43-A621-33B7B9A2920E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -620,6 +620,9 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,7 +846,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -851,14 +854,14 @@
     <col min="1" max="1" width="26.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="10" style="24" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="24" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="24" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" style="14" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" style="14" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="14" customWidth="1"/>
     <col min="9" max="9" width="16.1640625" style="14" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="86" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="98" customHeight="1" x14ac:dyDescent="0.15">
@@ -2046,7 +2049,7 @@
       <c r="C36" s="79">
         <v>44307</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="80" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="25"/>

--- a/Lesiones.xlsx
+++ b/Lesiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isanavarro/Documents/GitHub/Prediccion_de_lesiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EC1FD6-5D59-1C43-A621-33B7B9A2920E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81079E1-68A1-9B4A-A266-AE86BC108F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,21 +846,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+      <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="24" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="24" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="24" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="14" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="14" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="34.1640625" style="14" customWidth="1"/>
     <col min="11" max="11" width="12.83203125" style="38" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Lesiones.xlsx
+++ b/Lesiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isanavarro/Documents/GitHub/Prediccion_de_lesiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A593A5-77A1-CB41-8019-C83BE42F25A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A5989F-9A72-0440-8A38-47E96C93D24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -949,9 +949,9 @@
   </sheetPr>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
